--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 07-21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 07-21.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Фопи\Зарплата ФОП 2021\Табель ФОП 2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="70" windowWidth="15120" windowHeight="7750" tabRatio="867"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="15120" windowHeight="7752" tabRatio="867"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="24" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <sheet name="Ерідан" sheetId="19" r:id="rId10"/>
     <sheet name="Лист1" sheetId="20" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -301,13 +296,13 @@
     <t>ФОП____________Угринчук В. Г.</t>
   </si>
   <si>
-    <t>Феськів Роман Михайлович (0.25 20.07)</t>
+    <t>Феськів Роман Михайлович (0.5 20.07)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -865,6 +860,69 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -883,69 +941,6 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -958,6 +953,48 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -967,15 +1004,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -985,39 +1013,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1041,7 +1036,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1064,7 +1059,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1102,9 +1097,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1139,7 +1134,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1174,7 +1169,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1350,69 +1345,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Z28" sqref="A1:Z28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.36328125" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="26" width="9.08984375" style="2"/>
-    <col min="27" max="27" width="6.08984375" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.33203125" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="9.109375" style="2"/>
+    <col min="27" max="27" width="6.109375" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-    </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
       <c r="B3" s="83"/>
       <c r="C3" s="83"/>
@@ -1435,7 +1430,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
       <c r="B4" s="83"/>
       <c r="C4" s="83"/>
@@ -1463,7 +1458,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
@@ -1491,7 +1486,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
       <c r="B6" s="83"/>
       <c r="C6" s="83"/>
@@ -1519,149 +1514,149 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-    </row>
-    <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="102" t="str">
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+    </row>
+    <row r="8" spans="1:28" ht="19.95" x14ac:dyDescent="0.35">
+      <c r="A8" s="89" t="str">
         <f>Мельницький!A7</f>
         <v>обліку робочого часу працівників за Липень 2021р.</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
-    </row>
-    <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+    </row>
+    <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="103" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="96" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="96" t="s">
+      <c r="V9" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="W9" s="96" t="s">
+      <c r="W9" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="X9" s="96" t="s">
+      <c r="X9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="Y9" s="96" t="s">
+      <c r="Y9" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="97" t="s">
+      <c r="Z9" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="97"/>
-    </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90">
+    <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="84"/>
+    </row>
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="99">
         <v>1</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="92" t="s">
-        <v>42</v>
+      <c r="D11" s="101" t="s">
+        <v>69</v>
       </c>
       <c r="E11" s="27">
         <v>1</v>
@@ -1711,28 +1706,28 @@
       <c r="T11" s="27">
         <v>16</v>
       </c>
-      <c r="U11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="84" t="s">
+      <c r="U11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="105" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="80"/>
-      <c r="Y11" s="84">
+      <c r="Y11" s="105">
         <v>9</v>
       </c>
-      <c r="Z11" s="87">
+      <c r="Z11" s="108">
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="28" t="s">
         <v>13</v>
       </c>
@@ -1781,22 +1776,22 @@
       <c r="T12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="85"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="106"/>
       <c r="X12" s="81"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="87"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="108"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="31">
         <v>17</v>
       </c>
@@ -1845,25 +1840,25 @@
       <c r="T13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="85"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="106"/>
       <c r="X13" s="81"/>
-      <c r="Y13" s="84">
+      <c r="Y13" s="105">
         <f>AB13</f>
-        <v>54</v>
-      </c>
-      <c r="Z13" s="87"/>
+        <v>36</v>
+      </c>
+      <c r="Z13" s="108"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="28" t="s">
         <v>13</v>
       </c>
@@ -1874,16 +1869,16 @@
         <v>13</v>
       </c>
       <c r="H14" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J14" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L14" s="28" t="s">
         <v>13</v>
@@ -1892,19 +1887,19 @@
         <v>13</v>
       </c>
       <c r="N14" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O14" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P14" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R14" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S14" s="28" t="s">
         <v>13</v>
@@ -1912,15 +1907,15 @@
       <c r="T14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="86"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="107"/>
       <c r="X14" s="82"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="87"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="108"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2001,19 +1996,19 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" s="79" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="88" t="s">
+    <row r="18" spans="1:24" s="79" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="B18" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89">
+      <c r="C18" s="109"/>
+      <c r="D18" s="110">
         <f>Мельницький!C31</f>
         <v>44409</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
       <c r="L18" s="79" t="s">
         <v>88</v>
       </c>
@@ -2055,6 +2050,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2071,18 +2078,6 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2098,16 +2093,16 @@
       <selection activeCell="X13" sqref="X13:X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.36328125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.36328125" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="2" width="4.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.33203125" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
@@ -2125,7 +2120,7 @@
       <c r="X1" s="20"/>
       <c r="Y1" s="20"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>46</v>
       </c>
@@ -2156,7 +2151,7 @@
       <c r="X2" s="20"/>
       <c r="Y2" s="20"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>33</v>
       </c>
@@ -2189,7 +2184,7 @@
       <c r="X3" s="20"/>
       <c r="Y3" s="20"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -2269,148 +2264,148 @@
       <c r="W6" s="24"/>
       <c r="X6" s="24"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-    </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="101" t="str">
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+    </row>
+    <row r="8" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
+      <c r="A8" s="88" t="str">
         <f>Мельницький!A7</f>
         <v>обліку робочого часу працівників за Липень 2021р.</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-    </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+    </row>
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="103" t="s">
+      <c r="C9" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="96" t="s">
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="96" t="s">
+      <c r="V9" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="96" t="s">
+      <c r="W9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="96" t="s">
+      <c r="X9" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="97" t="s">
+      <c r="Y9" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="97"/>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="84"/>
+    </row>
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="99">
         <v>1</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="99">
         <v>1</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="101" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="27">
@@ -2461,16 +2456,16 @@
       <c r="T11" s="27">
         <v>16</v>
       </c>
-      <c r="U11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="84">
+      <c r="U11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="105">
         <v>21</v>
       </c>
       <c r="Y11" s="135"/>
@@ -2479,11 +2474,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="28" t="s">
         <v>13</v>
       </c>
@@ -2532,17 +2527,17 @@
       <c r="T12" s="28">
         <v>2</v>
       </c>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="86"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="107"/>
       <c r="Y12" s="136"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="29">
         <v>17</v>
       </c>
@@ -2591,20 +2586,20 @@
       <c r="T13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="84">
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="105">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
       <c r="Y13" s="136"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="28">
         <v>2</v>
       </c>
@@ -2653,10 +2648,10 @@
       <c r="T14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
       <c r="Y14" s="137"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
@@ -2715,7 +2710,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="2:12" s="34" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" s="34" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="138" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2723,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="40" t="s">
         <v>55</v>
       </c>
@@ -2736,7 +2731,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="40" t="s">
         <v>49</v>
       </c>
@@ -2744,7 +2739,7 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="40" t="s">
         <v>50</v>
       </c>
@@ -2752,7 +2747,7 @@
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="40" t="s">
         <v>51</v>
       </c>
@@ -2760,7 +2755,7 @@
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D23" s="40" t="s">
         <v>52</v>
       </c>
@@ -2768,7 +2763,7 @@
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D24" s="40" t="s">
         <v>53</v>
       </c>
@@ -2783,6 +2778,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -2793,19 +2801,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2821,29 +2816,29 @@
       <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" style="2" customWidth="1"/>
-    <col min="4" max="19" width="4.36328125" style="2" customWidth="1"/>
-    <col min="20" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="4.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="2" customWidth="1"/>
+    <col min="4" max="19" width="4.33203125" style="2" customWidth="1"/>
+    <col min="20" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
       <c r="N1" s="19" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="20"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>76</v>
       </c>
@@ -2872,7 +2867,7 @@
       <c r="W2" s="71"/>
       <c r="X2" s="71"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>77</v>
       </c>
@@ -2901,7 +2896,7 @@
       <c r="W3" s="71"/>
       <c r="X3" s="71"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="71"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2980,146 +2975,146 @@
       <c r="W6" s="71"/>
       <c r="X6" s="71"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
       <c r="X7" s="70"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="102" t="str">
+    <row r="8" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
+      <c r="A8" s="89" t="str">
         <f>Мельницький!A7</f>
         <v>обліку робочого часу працівників за Липень 2021р.</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
-      <c r="Y8" s="102"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="103" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="103" t="s">
+      <c r="B9" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="96" t="s">
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="U9" s="96" t="s">
+      <c r="U9" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="V9" s="96" t="s">
+      <c r="V9" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="96" t="s">
+      <c r="W9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="96" t="s">
+      <c r="X9" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="97" t="s">
+      <c r="Y9" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="97"/>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="84"/>
+    </row>
+    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="99">
         <v>1</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="101" t="s">
         <v>79</v>
       </c>
       <c r="D11" s="27">
@@ -3170,27 +3165,27 @@
       <c r="S11" s="27">
         <v>16</v>
       </c>
-      <c r="T11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="84" t="s">
+      <c r="T11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="111"/>
-      <c r="X11" s="84">
+      <c r="X11" s="105">
         <v>22</v>
       </c>
-      <c r="Y11" s="87">
+      <c r="Y11" s="108">
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="92"/>
+    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="28">
         <v>2</v>
       </c>
@@ -3239,21 +3234,21 @@
       <c r="S12" s="28">
         <v>2</v>
       </c>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="85"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="106"/>
       <c r="W12" s="112"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="87"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="108"/>
       <c r="Z12" s="3">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="31">
         <v>17</v>
       </c>
@@ -3302,20 +3297,20 @@
       <c r="S13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="85"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="106"/>
       <c r="W13" s="112"/>
-      <c r="X13" s="84">
+      <c r="X13" s="105">
         <f>Z12+Z14</f>
         <v>44</v>
       </c>
-      <c r="Y13" s="87"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
+      <c r="Y13" s="108"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="99"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
@@ -3360,25 +3355,25 @@
       </c>
       <c r="R14" s="28"/>
       <c r="S14" s="31"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="86"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="107"/>
       <c r="W14" s="113"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="87"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="108"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="90">
+    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="99">
         <v>2</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="101" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="27">
@@ -3429,27 +3424,27 @@
       <c r="S15" s="27">
         <v>16</v>
       </c>
-      <c r="T15" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="84" t="s">
+      <c r="T15" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="105" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="111"/>
-      <c r="X15" s="84">
+      <c r="X15" s="105">
         <v>22</v>
       </c>
-      <c r="Y15" s="87">
+      <c r="Y15" s="108">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
+    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="28">
         <v>8</v>
       </c>
@@ -3498,21 +3493,21 @@
       <c r="S16" s="28">
         <v>8</v>
       </c>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="85"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="106"/>
       <c r="W16" s="112"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="87"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="108"/>
       <c r="Z16" s="3">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="90"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="31">
         <v>17</v>
       </c>
@@ -3561,20 +3556,20 @@
       <c r="S17" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="85"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="106"/>
       <c r="W17" s="112"/>
-      <c r="X17" s="84">
+      <c r="X17" s="105">
         <f>Z16+Z18</f>
         <v>176</v>
       </c>
-      <c r="Y17" s="87"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="90"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
+      <c r="Y17" s="108"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="28" t="s">
         <v>13</v>
       </c>
@@ -3619,25 +3614,25 @@
       </c>
       <c r="R18" s="28"/>
       <c r="S18" s="31"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="86"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="107"/>
       <c r="W18" s="113"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="87"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="108"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="90">
+    <row r="19" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="99">
         <v>3</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="101" t="s">
         <v>83</v>
       </c>
       <c r="D19" s="27">
@@ -3688,27 +3683,27 @@
       <c r="S19" s="27">
         <v>16</v>
       </c>
-      <c r="T19" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="84" t="s">
+      <c r="T19" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="105" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="111"/>
-      <c r="X19" s="84">
+      <c r="X19" s="105">
         <v>9</v>
       </c>
-      <c r="Y19" s="87">
+      <c r="Y19" s="108">
         <v>6000</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="90"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
+    <row r="20" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="99"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="28" t="s">
         <v>8</v>
       </c>
@@ -3757,21 +3752,21 @@
       <c r="S20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="85"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="106"/>
       <c r="W20" s="112"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="87"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="108"/>
       <c r="Z20" s="3">
         <f>SUM(D20:S20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="90"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="31">
         <v>17</v>
       </c>
@@ -3820,20 +3815,20 @@
       <c r="S21" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="85"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="106"/>
       <c r="W21" s="112"/>
-      <c r="X21" s="84">
+      <c r="X21" s="105">
         <f>Z20+Z22</f>
         <v>72</v>
       </c>
-      <c r="Y21" s="87"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A22" s="90"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
+      <c r="Y21" s="108"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="99"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="28" t="s">
         <v>13</v>
       </c>
@@ -3878,18 +3873,18 @@
       </c>
       <c r="R22" s="28"/>
       <c r="S22" s="31"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="86"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="107"/>
       <c r="W22" s="113"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="87"/>
+      <c r="X22" s="107"/>
+      <c r="Y22" s="108"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -3916,7 +3911,7 @@
       <c r="X23" s="9"/>
       <c r="Y23" s="76"/>
     </row>
-    <row r="25" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B25" s="68"/>
       <c r="C25" s="72">
         <f>Мельницький!C31</f>
@@ -3945,7 +3940,7 @@
       <c r="V25" s="69"/>
       <c r="W25" s="69"/>
     </row>
-    <row r="27" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C27" s="40" t="s">
         <v>55</v>
       </c>
@@ -3953,7 +3948,7 @@
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
     </row>
-    <row r="28" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C28" s="40" t="s">
         <v>49</v>
       </c>
@@ -3961,7 +3956,7 @@
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
     </row>
-    <row r="29" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C29" s="40" t="s">
         <v>50</v>
       </c>
@@ -3969,7 +3964,7 @@
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
     </row>
-    <row r="30" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C30" s="40" t="s">
         <v>51</v>
       </c>
@@ -3977,7 +3972,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
     </row>
-    <row r="31" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C31" s="40" t="s">
         <v>52</v>
       </c>
@@ -3986,7 +3981,7 @@
       <c r="F31" s="41"/>
       <c r="P31" s="31"/>
     </row>
-    <row r="32" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C32" s="40" t="s">
         <v>53</v>
       </c>
@@ -4001,11 +3996,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="V19:V22"/>
     <mergeCell ref="W19:W22"/>
     <mergeCell ref="X11:X12"/>
@@ -4021,29 +4034,11 @@
     <mergeCell ref="X17:X18"/>
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="W11:W14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
+    <mergeCell ref="U19:U22"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -4058,34 +4053,34 @@
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="2" customWidth="1"/>
-    <col min="4" max="7" width="4.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="7" width="4.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.33203125" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.36328125" style="2" customWidth="1"/>
-    <col min="20" max="23" width="5.453125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="2"/>
+    <col min="15" max="15" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.33203125" style="2" customWidth="1"/>
+    <col min="20" max="23" width="5.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
       <c r="Q1" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>68</v>
       </c>
@@ -4114,7 +4109,7 @@
       <c r="V2" s="59"/>
       <c r="W2" s="59"/>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -4141,7 +4136,7 @@
       <c r="V3" s="59"/>
       <c r="W3" s="59"/>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -4193,142 +4188,142 @@
       <c r="V5" s="59"/>
       <c r="W5" s="59"/>
     </row>
-    <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="101" t="s">
+    <row r="6" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-    </row>
-    <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="101" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+    </row>
+    <row r="7" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-    </row>
-    <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+    </row>
+    <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="103" t="s">
+      <c r="B8" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="96" t="s">
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="96" t="s">
+      <c r="U8" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="V8" s="96" t="s">
+      <c r="V8" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="96" t="s">
+      <c r="W8" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="96" t="s">
+      <c r="X8" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" s="97" t="s">
+      <c r="Y8" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="97"/>
-    </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="90">
+    <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="84"/>
+    </row>
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="99">
         <v>1</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="101" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="27">
@@ -4379,29 +4374,29 @@
       <c r="S10" s="27">
         <v>16</v>
       </c>
-      <c r="T10" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="87">
+      <c r="T10" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="108">
         <v>4770</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="28" t="s">
         <v>73</v>
       </c>
@@ -4450,17 +4445,17 @@
       <c r="S11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="87"/>
-    </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="92"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="108"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="29">
         <v>17</v>
       </c>
@@ -4509,19 +4504,19 @@
       <c r="S12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="87"/>
-    </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="108"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="28" t="s">
         <v>73</v>
       </c>
@@ -4570,12 +4565,12 @@
       <c r="S13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="87"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="108"/>
     </row>
     <row r="14" spans="1:25" s="58" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="57"/>
@@ -4589,11 +4584,11 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="88" t="s">
+    <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="60">
         <v>43955</v>
       </c>
@@ -4601,7 +4596,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C17" s="40" t="s">
         <v>55</v>
       </c>
@@ -4609,7 +4604,7 @@
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
     </row>
-    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C18" s="40" t="s">
         <v>49</v>
       </c>
@@ -4617,7 +4612,7 @@
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
     </row>
-    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C19" s="40" t="s">
         <v>50</v>
       </c>
@@ -4625,7 +4620,7 @@
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
     </row>
-    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C20" s="40" t="s">
         <v>51</v>
       </c>
@@ -4633,7 +4628,7 @@
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
     </row>
-    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C21" s="40" t="s">
         <v>52</v>
       </c>
@@ -4641,7 +4636,7 @@
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C22" s="40" t="s">
         <v>53</v>
       </c>
@@ -4659,16 +4654,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -4683,6 +4668,16 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4698,18 +4693,18 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.36328125" style="2" customWidth="1"/>
-    <col min="21" max="25" width="5.453125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.33203125" style="2" customWidth="1"/>
+    <col min="21" max="25" width="5.44140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>9</v>
       </c>
@@ -4727,7 +4722,7 @@
       <c r="X1" s="20"/>
       <c r="Y1" s="20"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
         <v>26</v>
       </c>
@@ -4758,7 +4753,7 @@
       <c r="X2" s="20"/>
       <c r="Y2" s="20"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>33</v>
       </c>
@@ -4791,7 +4786,7 @@
       <c r="X3" s="20"/>
       <c r="Y3" s="20"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
@@ -4847,66 +4842,66 @@
       <c r="X5" s="54"/>
       <c r="Y5" s="54"/>
     </row>
-    <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="101" t="s">
+    <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="101"/>
-      <c r="Y6" s="101"/>
-    </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="101" t="str">
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+    </row>
+    <row r="7" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
+      <c r="A7" s="88" t="str">
         <f>Мельницький!A7</f>
         <v>обліку робочого часу працівників за Липень 2021р.</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-    </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+    </row>
+    <row r="8" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A8" s="52"/>
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
@@ -4933,95 +4928,95 @@
       <c r="X8" s="52"/>
       <c r="Y8" s="52"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103" t="s">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="103" t="s">
+      <c r="C9" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="96" t="s">
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="96" t="s">
+      <c r="V9" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="W9" s="96" t="s">
+      <c r="W9" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="X9" s="96" t="s">
+      <c r="X9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="Y9" s="96" t="s">
+      <c r="Y9" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="97" t="s">
+      <c r="Z9" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="97"/>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="84"/>
+    </row>
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="99">
         <v>1</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="99">
         <v>1</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="101" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="27">
@@ -5072,28 +5067,28 @@
       <c r="T11" s="27">
         <v>16</v>
       </c>
-      <c r="U11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="84" t="s">
+      <c r="U11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="105" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="111"/>
-      <c r="Y11" s="84" t="s">
+      <c r="Y11" s="105" t="s">
         <v>8</v>
       </c>
       <c r="Z11" s="114">
         <v>4770</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="28" t="s">
         <v>73</v>
       </c>
@@ -5142,18 +5137,18 @@
       <c r="T12" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="85"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="106"/>
       <c r="X12" s="112"/>
-      <c r="Y12" s="86"/>
+      <c r="Y12" s="107"/>
       <c r="Z12" s="114"/>
     </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
+    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="29">
         <v>17</v>
       </c>
@@ -5202,20 +5197,20 @@
       <c r="T13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="85"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="106"/>
       <c r="X13" s="112"/>
-      <c r="Y13" s="84" t="s">
+      <c r="Y13" s="105" t="s">
         <v>8</v>
       </c>
       <c r="Z13" s="114"/>
     </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
+    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="28" t="s">
         <v>73</v>
       </c>
@@ -5264,18 +5259,18 @@
       <c r="T14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="86"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="107"/>
       <c r="X14" s="113"/>
-      <c r="Y14" s="86"/>
+      <c r="Y14" s="107"/>
       <c r="Z14" s="114"/>
     </row>
-    <row r="15" spans="1:26" s="53" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="88" t="s">
+    <row r="15" spans="1:26" s="53" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="88"/>
+      <c r="C15" s="109"/>
       <c r="D15" s="55" t="str">
         <f>Мельницький!C39</f>
         <v xml:space="preserve">   НА- відпустку без збереження заробітної плати </v>
@@ -5284,7 +5279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D17" s="40" t="s">
         <v>55</v>
       </c>
@@ -5292,7 +5287,7 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D18" s="40" t="s">
         <v>49</v>
       </c>
@@ -5300,7 +5295,7 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
     </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="40" t="s">
         <v>50</v>
       </c>
@@ -5308,7 +5303,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="40" t="s">
         <v>51</v>
       </c>
@@ -5316,7 +5311,7 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="40" t="s">
         <v>52</v>
       </c>
@@ -5324,7 +5319,688 @@
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D22" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.33203125" style="2" customWidth="1"/>
+    <col min="21" max="25" width="5.44140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="R1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48">
+        <v>3284801354</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+    </row>
+    <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+    </row>
+    <row r="7" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
+      <c r="A7" s="88" t="str">
+        <f>Мельницький!A7</f>
+        <v>обліку робочого часу працівників за Липень 2021р.</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+    </row>
+    <row r="8" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+    </row>
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" s="84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="84"/>
+    </row>
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="99">
+        <v>1</v>
+      </c>
+      <c r="B11" s="99">
+        <v>1</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="27">
+        <v>1</v>
+      </c>
+      <c r="F11" s="27">
+        <v>2</v>
+      </c>
+      <c r="G11" s="27">
+        <v>3</v>
+      </c>
+      <c r="H11" s="27">
+        <v>4</v>
+      </c>
+      <c r="I11" s="27">
+        <v>5</v>
+      </c>
+      <c r="J11" s="27">
+        <v>6</v>
+      </c>
+      <c r="K11" s="27">
+        <v>7</v>
+      </c>
+      <c r="L11" s="27">
+        <v>8</v>
+      </c>
+      <c r="M11" s="27">
+        <v>9</v>
+      </c>
+      <c r="N11" s="27">
+        <v>10</v>
+      </c>
+      <c r="O11" s="27">
+        <v>11</v>
+      </c>
+      <c r="P11" s="27">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>13</v>
+      </c>
+      <c r="R11" s="27">
+        <v>14</v>
+      </c>
+      <c r="S11" s="27">
+        <v>15</v>
+      </c>
+      <c r="T11" s="27">
+        <v>16</v>
+      </c>
+      <c r="U11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="114">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="114"/>
+    </row>
+    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="29">
+        <v>17</v>
+      </c>
+      <c r="F13" s="29">
+        <v>18</v>
+      </c>
+      <c r="G13" s="29">
+        <v>19</v>
+      </c>
+      <c r="H13" s="29">
+        <v>20</v>
+      </c>
+      <c r="I13" s="29">
+        <v>21</v>
+      </c>
+      <c r="J13" s="29">
+        <v>22</v>
+      </c>
+      <c r="K13" s="29">
+        <v>23</v>
+      </c>
+      <c r="L13" s="29">
+        <v>24</v>
+      </c>
+      <c r="M13" s="29">
+        <v>25</v>
+      </c>
+      <c r="N13" s="29">
+        <v>26</v>
+      </c>
+      <c r="O13" s="29">
+        <v>27</v>
+      </c>
+      <c r="P13" s="29">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>29</v>
+      </c>
+      <c r="R13" s="30">
+        <v>30</v>
+      </c>
+      <c r="S13" s="30">
+        <v>31</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="114"/>
+    </row>
+    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="114"/>
+    </row>
+    <row r="15" spans="1:26" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="109"/>
+      <c r="D15" s="44" t="str">
+        <f>Мельницький!C39</f>
+        <v xml:space="preserve">   НА- відпустку без збереження заробітної плати </v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D17" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D18" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D19" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D20" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D21" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="40" t="s">
         <v>53</v>
       </c>
@@ -5371,687 +6047,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:T14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.36328125" style="2" customWidth="1"/>
-    <col min="21" max="25" width="5.453125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="R1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-    </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48">
-        <v>3284801354</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-    </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-    </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-    </row>
-    <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="101"/>
-      <c r="Y6" s="101"/>
-    </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="101" t="str">
-        <f>Мельницький!A7</f>
-        <v>обліку робочого часу працівників за Липень 2021р.</v>
-      </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-    </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-    </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="W9" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="X9" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y9" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z9" s="97" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="97"/>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90">
-        <v>1</v>
-      </c>
-      <c r="B11" s="90">
-        <v>1</v>
-      </c>
-      <c r="C11" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="27">
-        <v>1</v>
-      </c>
-      <c r="F11" s="27">
-        <v>2</v>
-      </c>
-      <c r="G11" s="27">
-        <v>3</v>
-      </c>
-      <c r="H11" s="27">
-        <v>4</v>
-      </c>
-      <c r="I11" s="27">
-        <v>5</v>
-      </c>
-      <c r="J11" s="27">
-        <v>6</v>
-      </c>
-      <c r="K11" s="27">
-        <v>7</v>
-      </c>
-      <c r="L11" s="27">
-        <v>8</v>
-      </c>
-      <c r="M11" s="27">
-        <v>9</v>
-      </c>
-      <c r="N11" s="27">
-        <v>10</v>
-      </c>
-      <c r="O11" s="27">
-        <v>11</v>
-      </c>
-      <c r="P11" s="27">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>13</v>
-      </c>
-      <c r="R11" s="27">
-        <v>14</v>
-      </c>
-      <c r="S11" s="27">
-        <v>15</v>
-      </c>
-      <c r="T11" s="27">
-        <v>16</v>
-      </c>
-      <c r="U11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="114">
-        <v>4770</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="S12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="T12" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="114"/>
-    </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="29">
-        <v>17</v>
-      </c>
-      <c r="F13" s="29">
-        <v>18</v>
-      </c>
-      <c r="G13" s="29">
-        <v>19</v>
-      </c>
-      <c r="H13" s="29">
-        <v>20</v>
-      </c>
-      <c r="I13" s="29">
-        <v>21</v>
-      </c>
-      <c r="J13" s="29">
-        <v>22</v>
-      </c>
-      <c r="K13" s="29">
-        <v>23</v>
-      </c>
-      <c r="L13" s="29">
-        <v>24</v>
-      </c>
-      <c r="M13" s="29">
-        <v>25</v>
-      </c>
-      <c r="N13" s="29">
-        <v>26</v>
-      </c>
-      <c r="O13" s="29">
-        <v>27</v>
-      </c>
-      <c r="P13" s="29">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>29</v>
-      </c>
-      <c r="R13" s="30">
-        <v>30</v>
-      </c>
-      <c r="S13" s="30">
-        <v>31</v>
-      </c>
-      <c r="T13" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="114"/>
-    </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="R14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="114"/>
-    </row>
-    <row r="15" spans="1:26" s="45" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="44" t="str">
-        <f>Мельницький!C39</f>
-        <v xml:space="preserve">   НА- відпустку без збереження заробітної плати </v>
-      </c>
-      <c r="L15" s="45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D17" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D18" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D19" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-    </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D20" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D21" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D22" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB18"/>
@@ -6060,65 +6055,65 @@
       <selection activeCell="Z19" sqref="A1:Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.36328125" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="26" width="9.08984375" style="2"/>
-    <col min="27" max="27" width="6.08984375" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.33203125" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="9.109375" style="2"/>
+    <col min="27" max="27" width="6.109375" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-    </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+    </row>
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -6141,7 +6136,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -6169,7 +6164,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -6197,7 +6192,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -6225,148 +6220,148 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-    </row>
-    <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="102" t="str">
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+    </row>
+    <row r="8" spans="1:28" ht="19.95" x14ac:dyDescent="0.35">
+      <c r="A8" s="89" t="str">
         <f>Мельницький!A7</f>
         <v>обліку робочого часу працівників за Липень 2021р.</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
-    </row>
-    <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+    </row>
+    <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="103" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="96" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="96" t="s">
+      <c r="V9" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="W9" s="96" t="s">
+      <c r="W9" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="X9" s="96" t="s">
+      <c r="X9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="Y9" s="96" t="s">
+      <c r="Y9" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="97" t="s">
+      <c r="Z9" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="97"/>
-    </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90">
+    <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="84"/>
+    </row>
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="99">
         <v>1</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="101" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="27">
@@ -6417,28 +6412,28 @@
       <c r="T11" s="27">
         <v>16</v>
       </c>
-      <c r="U11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="84" t="s">
+      <c r="U11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="105" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="37"/>
-      <c r="Y11" s="84">
+      <c r="Y11" s="105">
         <v>22</v>
       </c>
-      <c r="Z11" s="87">
+      <c r="Z11" s="108">
         <v>6060</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="28">
         <v>2</v>
       </c>
@@ -6487,22 +6482,22 @@
       <c r="T12" s="28">
         <v>2</v>
       </c>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="85"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="106"/>
       <c r="X12" s="39"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="87"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="108"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="31">
         <v>17</v>
       </c>
@@ -6551,24 +6546,24 @@
       <c r="T13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="85"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="106"/>
       <c r="X13" s="39"/>
-      <c r="Y13" s="84">
+      <c r="Y13" s="105">
         <v>44</v>
       </c>
-      <c r="Z13" s="87"/>
+      <c r="Z13" s="108"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="28" t="s">
         <v>13</v>
       </c>
@@ -6617,12 +6612,12 @@
       <c r="T14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="86"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="107"/>
       <c r="X14" s="38"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="87"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="108"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>20</v>
@@ -6706,30 +6701,33 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" s="34" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="88" t="s">
+    <row r="18" spans="1:24" s="34" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="B18" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89">
+      <c r="C18" s="109"/>
+      <c r="D18" s="110">
         <f>Мельницький!C31</f>
         <v>44409</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
       <c r="L18" s="34" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -6745,14 +6743,11 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -6769,34 +6764,34 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="2" customWidth="1"/>
-    <col min="4" max="7" width="4.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="7" width="4.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.33203125" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.36328125" style="2" customWidth="1"/>
-    <col min="20" max="23" width="5.453125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="2"/>
+    <col min="15" max="15" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.33203125" style="2" customWidth="1"/>
+    <col min="20" max="23" width="5.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
       <c r="Q1" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>16</v>
       </c>
@@ -6825,7 +6820,7 @@
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -6852,7 +6847,7 @@
       <c r="V3" s="23"/>
       <c r="W3" s="23"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -6904,142 +6899,142 @@
       <c r="V5" s="23"/>
       <c r="W5" s="23"/>
     </row>
-    <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="101" t="s">
+    <row r="6" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-    </row>
-    <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="101" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+    </row>
+    <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-    </row>
-    <row r="8" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+    </row>
+    <row r="8" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="103" t="s">
+      <c r="B8" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="96" t="s">
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="96" t="s">
+      <c r="U8" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="V8" s="96" t="s">
+      <c r="V8" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="96" t="s">
+      <c r="W8" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="96" t="s">
+      <c r="X8" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" s="97" t="s">
+      <c r="Y8" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="97"/>
-    </row>
-    <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="90">
+    <row r="9" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="84"/>
+    </row>
+    <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="99">
         <v>1</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="132" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="27">
@@ -7090,29 +7085,29 @@
       <c r="S10" s="27">
         <v>16</v>
       </c>
-      <c r="T10" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="84">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="87">
+      <c r="T10" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="105">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="108">
         <v>6300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="122"/>
+    <row r="11" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="133"/>
       <c r="D11" s="28">
         <v>8</v>
       </c>
@@ -7161,21 +7156,21 @@
       <c r="S11" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="87"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="108"/>
       <c r="Z11" s="3">
         <f>SUM(D11:S11)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="122"/>
+    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="31">
         <v>17</v>
       </c>
@@ -7224,20 +7219,20 @@
       <c r="S12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="84">
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="105">
         <f>Z11+Z13</f>
         <v>32</v>
       </c>
-      <c r="Y12" s="87"/>
-    </row>
-    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="123"/>
+      <c r="Y12" s="108"/>
+    </row>
+    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="31" t="s">
         <v>75</v>
       </c>
@@ -7284,25 +7279,25 @@
         <v>75</v>
       </c>
       <c r="S13" s="31"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="87"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="108"/>
       <c r="Z13" s="2">
         <f>SUM(D13:S13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="90">
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="99">
         <v>2</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="92" t="str">
+      <c r="C14" s="101" t="str">
         <f>C10</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -7354,22 +7349,22 @@
       <c r="S14" s="27">
         <v>16</v>
       </c>
-      <c r="T14" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="84">
+      <c r="T14" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="105">
         <v>22</v>
       </c>
-      <c r="Y14" s="87">
+      <c r="Y14" s="108">
         <v>6300</v>
       </c>
       <c r="Z14" s="2" t="s">
@@ -7380,10 +7375,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
+    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="28">
         <v>8</v>
       </c>
@@ -7432,12 +7427,12 @@
       <c r="S15" s="28">
         <v>8</v>
       </c>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="87"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="108"/>
       <c r="Z15" s="2">
         <f>SUM(D15:S15)</f>
         <v>96</v>
@@ -7447,10 +7442,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
+    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="31">
         <v>17</v>
       </c>
@@ -7499,20 +7494,20 @@
       <c r="S16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="84">
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="105">
         <f>Z15+Z17</f>
         <v>176</v>
       </c>
-      <c r="Y16" s="87"/>
-    </row>
-    <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="90"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
+      <c r="Y16" s="108"/>
+    </row>
+    <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="28">
         <v>8</v>
       </c>
@@ -7557,12 +7552,12 @@
       </c>
       <c r="R17" s="28"/>
       <c r="S17" s="31"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="87"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="108"/>
       <c r="Z17" s="2">
         <f>SUM(D17:S17)</f>
         <v>80</v>
@@ -7572,14 +7567,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="124">
-        <v>4</v>
-      </c>
-      <c r="B18" s="134" t="s">
+    <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="118">
+        <v>4</v>
+      </c>
+      <c r="B18" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="125" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="27">
@@ -7630,29 +7625,29 @@
       <c r="S18" s="67">
         <v>16</v>
       </c>
-      <c r="T18" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="U18" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="V18" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W18" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="X18" s="118">
+      <c r="T18" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="V18" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="X18" s="115">
         <v>22</v>
       </c>
-      <c r="Y18" s="87">
+      <c r="Y18" s="108">
         <v>6060</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="124"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="131"/>
+    <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="118"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="28">
         <v>4</v>
       </c>
@@ -7701,21 +7696,21 @@
       <c r="S19" s="31">
         <v>4</v>
       </c>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="119"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="87"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="130"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="108"/>
       <c r="Z19" s="2">
         <f>SUM(D19:S19)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="124"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="131"/>
+    <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="118"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="125"/>
       <c r="D20" s="31">
         <v>17</v>
       </c>
@@ -7764,20 +7759,20 @@
       <c r="S20" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="118">
+      <c r="T20" s="130"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="115">
         <f>Z19+Z21</f>
         <v>88</v>
       </c>
-      <c r="Y20" s="87"/>
-    </row>
-    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="124"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="131"/>
+      <c r="Y20" s="108"/>
+    </row>
+    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="118"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="125"/>
       <c r="D21" s="31">
         <v>4</v>
       </c>
@@ -7824,25 +7819,25 @@
         <v>4</v>
       </c>
       <c r="S21" s="31"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="120"/>
-      <c r="W21" s="120"/>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="87"/>
+      <c r="T21" s="131"/>
+      <c r="U21" s="131"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="108"/>
       <c r="Z21" s="2">
         <f>SUM(D21:S21)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="90">
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="99">
         <v>6</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="127" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="27">
@@ -7893,29 +7888,29 @@
       <c r="S22" s="27">
         <v>16</v>
       </c>
-      <c r="T22" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="U22" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V22" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="W22" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="X22" s="84">
+      <c r="T22" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="105">
         <v>22</v>
       </c>
-      <c r="Y22" s="87">
+      <c r="Y22" s="108">
         <v>6060</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="90"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="133"/>
+    <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="99"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="127"/>
       <c r="D23" s="28">
         <v>4</v>
       </c>
@@ -7964,21 +7959,21 @@
       <c r="S23" s="28">
         <v>4</v>
       </c>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="87"/>
+      <c r="T23" s="103"/>
+      <c r="U23" s="103"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="108"/>
       <c r="Z23" s="2">
         <f>SUM(D23:S23)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="90"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="133"/>
+    <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="99"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="31">
         <v>17</v>
       </c>
@@ -8027,24 +8022,24 @@
       <c r="S24" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="84">
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="105">
         <f>Z23+Z25</f>
         <v>88</v>
       </c>
-      <c r="Y24" s="87"/>
+      <c r="Y24" s="108"/>
       <c r="AA24" s="2">
         <f>Z23+Z25</f>
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="90"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="133"/>
+    <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="99"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="127"/>
       <c r="D25" s="28" t="s">
         <v>13</v>
       </c>
@@ -8089,25 +8084,25 @@
       </c>
       <c r="R25" s="28"/>
       <c r="S25" s="31"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="87"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="108"/>
       <c r="Z25" s="2">
         <f>SUM(D25:R25)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="125">
+    <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="119">
         <v>7</v>
       </c>
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="131" t="s">
+      <c r="C26" s="125" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="27">
@@ -8158,29 +8153,29 @@
       <c r="S26" s="27">
         <v>16</v>
       </c>
-      <c r="T26" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="U26" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V26" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="W26" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="X26" s="84">
+      <c r="T26" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W26" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="X26" s="105">
         <v>22</v>
       </c>
-      <c r="Y26" s="87">
+      <c r="Y26" s="108">
         <v>6060</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="126"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="131"/>
+    <row r="27" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="120"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="28">
         <v>4</v>
       </c>
@@ -8229,21 +8224,21 @@
       <c r="S27" s="28">
         <v>4</v>
       </c>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="85"/>
-      <c r="W27" s="85"/>
-      <c r="X27" s="85"/>
-      <c r="Y27" s="87"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="108"/>
       <c r="Z27" s="2">
         <f>SUM(D27:S27)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="126"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="131"/>
+    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="120"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="31">
         <v>17</v>
       </c>
@@ -8292,20 +8287,20 @@
       <c r="S28" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="84">
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="105">
         <f>Z27+Z29</f>
         <v>88</v>
       </c>
-      <c r="Y28" s="87"/>
-    </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="127"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="131"/>
+      <c r="Y28" s="108"/>
+    </row>
+    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="121"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="28" t="s">
         <v>13</v>
       </c>
@@ -8350,18 +8345,18 @@
       </c>
       <c r="R29" s="28"/>
       <c r="S29" s="31"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="87"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
+      <c r="X29" s="107"/>
+      <c r="Y29" s="108"/>
       <c r="Z29" s="2">
         <f>SUM(D29:S29)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
@@ -8394,11 +8389,11 @@
         <v>30780</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="65" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="88" t="s">
+    <row r="31" spans="1:27" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="88"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="66">
         <v>44409</v>
       </c>
@@ -8406,10 +8401,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="15.45" x14ac:dyDescent="0.35">
       <c r="C32" s="25"/>
     </row>
-    <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C33" s="40" t="s">
         <v>61</v>
       </c>
@@ -8417,7 +8412,7 @@
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
     </row>
-    <row r="34" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C34" s="40" t="s">
         <v>49</v>
       </c>
@@ -8425,7 +8420,7 @@
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
     </row>
-    <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C35" s="40" t="s">
         <v>50</v>
       </c>
@@ -8433,7 +8428,7 @@
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
     </row>
-    <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C36" s="40" t="s">
         <v>51</v>
       </c>
@@ -8441,7 +8436,7 @@
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
     </row>
-    <row r="37" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C37" s="40" t="s">
         <v>52</v>
       </c>
@@ -8449,7 +8444,7 @@
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
     </row>
-    <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C38" s="40" t="s">
         <v>53</v>
       </c>
@@ -8462,7 +8457,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C41" s="40" t="s">
         <v>55</v>
       </c>
@@ -8470,7 +8465,7 @@
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
     </row>
-    <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C42" s="40" t="s">
         <v>49</v>
       </c>
@@ -8478,7 +8473,7 @@
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
     </row>
-    <row r="43" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C43" s="40" t="s">
         <v>50</v>
       </c>
@@ -8486,7 +8481,7 @@
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
     </row>
-    <row r="44" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C44" s="40" t="s">
         <v>51</v>
       </c>
@@ -8494,7 +8489,7 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
     </row>
-    <row r="45" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C45" s="40" t="s">
         <v>52</v>
       </c>
@@ -8502,7 +8497,7 @@
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
     </row>
-    <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C46" s="40" t="s">
         <v>53</v>
       </c>
@@ -8520,29 +8515,31 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="W18:W21"/>
-    <mergeCell ref="W22:W25"/>
-    <mergeCell ref="W26:W29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="Y22:Y25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y26:Y29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y14:Y17"/>
-    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="U18:U21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="V18:V21"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="T14:T17"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:S9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="U14:U17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="A26:A29"/>
@@ -8559,31 +8556,29 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="T18:T21"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:S9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="U14:U17"/>
-    <mergeCell ref="U18:U21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="V18:V21"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="T14:T17"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y14:Y17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="Y22:Y25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y26:Y29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="W18:W21"/>
+    <mergeCell ref="W22:W25"/>
+    <mergeCell ref="W26:W29"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8601,34 +8596,34 @@
       <selection activeCell="V17" sqref="V17:V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="2" customWidth="1"/>
-    <col min="4" max="7" width="4.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.36328125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.36328125" style="2" customWidth="1"/>
-    <col min="20" max="23" width="5.453125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="9.08984375" style="2"/>
-    <col min="25" max="25" width="10.90625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="7" width="4.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.33203125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.33203125" style="2" customWidth="1"/>
+    <col min="20" max="23" width="5.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" style="2"/>
+    <col min="25" max="25" width="10.88671875" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
       <c r="Q1" s="19" t="s">
         <v>29</v>
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>21</v>
       </c>
@@ -8657,7 +8652,7 @@
       <c r="V2" s="63"/>
       <c r="W2" s="63"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="63"/>
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
@@ -8684,7 +8679,7 @@
       <c r="V3" s="63"/>
       <c r="W3" s="63"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="63"/>
       <c r="B4" s="63"/>
       <c r="C4" s="63"/>
@@ -8711,143 +8706,143 @@
       <c r="V4" s="63"/>
       <c r="W4" s="63"/>
     </row>
-    <row r="5" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A5" s="101" t="s">
+    <row r="5" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-    </row>
-    <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="101" t="str">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+    </row>
+    <row r="6" spans="1:28" ht="19.95" x14ac:dyDescent="0.35">
+      <c r="A6" s="88" t="str">
         <f>Мельницький!A7</f>
         <v>обліку робочого часу працівників за Липень 2021р.</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-    </row>
-    <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+    </row>
+    <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="103" t="s">
+      <c r="B7" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="96" t="s">
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="96" t="s">
+      <c r="U7" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="96" t="s">
+      <c r="V7" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="W7" s="96" t="s">
+      <c r="W7" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="X7" s="96" t="s">
+      <c r="X7" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" s="97" t="s">
+      <c r="Y7" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="97"/>
-    </row>
-    <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="90">
+    <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="84"/>
+    </row>
+    <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="99">
         <v>1</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="132" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="27">
@@ -8898,29 +8893,29 @@
       <c r="S9" s="27">
         <v>16</v>
       </c>
-      <c r="T9" s="93">
+      <c r="T9" s="102">
         <v>24</v>
       </c>
-      <c r="U9" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="84">
+      <c r="U9" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="105">
         <v>5</v>
       </c>
-      <c r="Y9" s="87">
+      <c r="Y9" s="108">
         <v>6300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="90"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="122"/>
+    <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="99"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="133"/>
       <c r="D10" s="28" t="s">
         <v>86</v>
       </c>
@@ -8969,21 +8964,21 @@
       <c r="S10" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="87"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="108"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="122"/>
+    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="133"/>
       <c r="D11" s="31">
         <v>17</v>
       </c>
@@ -9032,20 +9027,20 @@
       <c r="S11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="84">
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="105">
         <f>Z10+Z12</f>
         <v>40</v>
       </c>
-      <c r="Y11" s="87"/>
-    </row>
-    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="123"/>
+      <c r="Y11" s="108"/>
+    </row>
+    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="28" t="s">
         <v>86</v>
       </c>
@@ -9094,25 +9089,25 @@
       <c r="S12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="87"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="108"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="90">
+    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="99">
         <v>2</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="92" t="str">
+      <c r="C13" s="101" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -9164,22 +9159,22 @@
       <c r="S13" s="27">
         <v>16</v>
       </c>
-      <c r="T13" s="93">
+      <c r="T13" s="102">
         <v>24</v>
       </c>
-      <c r="U13" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="84">
+      <c r="U13" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="105">
         <v>5</v>
       </c>
-      <c r="Y13" s="87">
+      <c r="Y13" s="108">
         <v>6300</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -9190,10 +9185,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="99"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="28" t="s">
         <v>86</v>
       </c>
@@ -9242,12 +9237,12 @@
       <c r="S14" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="87"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="108"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>0</v>
@@ -9257,10 +9252,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
+    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="31">
         <v>17</v>
       </c>
@@ -9309,20 +9304,20 @@
       <c r="S15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="84">
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="105">
         <f>Z14+Z16</f>
         <v>40</v>
       </c>
-      <c r="Y15" s="87"/>
-    </row>
-    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
+      <c r="Y15" s="108"/>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="28" t="s">
         <v>86</v>
       </c>
@@ -9371,12 +9366,12 @@
       <c r="S16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="87"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="108"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>40</v>
@@ -9386,14 +9381,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="124">
+    <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="118">
         <v>3</v>
       </c>
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="125" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="27">
@@ -9444,29 +9439,29 @@
       <c r="S17" s="27">
         <v>16</v>
       </c>
-      <c r="T17" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="118">
+      <c r="T17" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="115">
         <v>22</v>
       </c>
-      <c r="Y17" s="87">
+      <c r="Y17" s="108">
         <v>6060</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="124"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="131"/>
+    <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="118"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="125"/>
       <c r="D18" s="28">
         <v>4</v>
       </c>
@@ -9515,21 +9510,21 @@
       <c r="S18" s="28">
         <v>4</v>
       </c>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
-      <c r="V18" s="119"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="87"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="130"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="108"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="124"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="131"/>
+    <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="118"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="31">
         <v>17</v>
       </c>
@@ -9578,20 +9573,20 @@
       <c r="S19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="119"/>
-      <c r="X19" s="118">
+      <c r="T19" s="130"/>
+      <c r="U19" s="130"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="115">
         <f>Z18+Z20</f>
         <v>88</v>
       </c>
-      <c r="Y19" s="87"/>
-    </row>
-    <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="124"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="131"/>
+      <c r="Y19" s="108"/>
+    </row>
+    <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="118"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="125"/>
       <c r="D20" s="28" t="s">
         <v>13</v>
       </c>
@@ -9640,25 +9635,25 @@
       <c r="S20" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="120"/>
-      <c r="W20" s="120"/>
-      <c r="X20" s="120"/>
-      <c r="Y20" s="87"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="131"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="108"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="125">
-        <v>4</v>
-      </c>
-      <c r="B21" s="128" t="s">
+    <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="119">
+        <v>4</v>
+      </c>
+      <c r="B21" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" s="125" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="27">
@@ -9709,29 +9704,29 @@
       <c r="S21" s="27">
         <v>16</v>
       </c>
-      <c r="T21" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="84">
+      <c r="T21" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="105">
         <v>22</v>
       </c>
-      <c r="Y21" s="87">
+      <c r="Y21" s="108">
         <v>6060</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="126"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="131"/>
+    <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="120"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="125"/>
       <c r="D22" s="28">
         <v>4</v>
       </c>
@@ -9780,21 +9775,21 @@
       <c r="S22" s="28">
         <v>4</v>
       </c>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="87"/>
+      <c r="T22" s="103"/>
+      <c r="U22" s="103"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="108"/>
       <c r="Z22" s="2">
         <f>SUM(Коломия!E12:T12)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="126"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="131"/>
+    <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="120"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="125"/>
       <c r="D23" s="31">
         <v>17</v>
       </c>
@@ -9843,20 +9838,20 @@
       <c r="S23" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="84">
+      <c r="T23" s="103"/>
+      <c r="U23" s="103"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="105">
         <f>Z22+Z24</f>
         <v>44</v>
       </c>
-      <c r="Y23" s="87"/>
-    </row>
-    <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="127"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="131"/>
+      <c r="Y23" s="108"/>
+    </row>
+    <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="121"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="28" t="s">
         <v>13</v>
       </c>
@@ -9905,12 +9900,12 @@
       <c r="S24" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="87"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="107"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="108"/>
       <c r="Z24" s="2">
         <f>SUM(Коломия!E14:T14)</f>
         <v>20</v>
@@ -9949,11 +9944,11 @@
         <v>24720</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="88" t="s">
+    <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="88"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="66">
         <v>44409</v>
       </c>
@@ -9990,7 +9985,7 @@
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="25"/>
     </row>
-    <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="40" t="s">
         <v>61</v>
       </c>
@@ -9998,7 +9993,7 @@
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
     </row>
-    <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="40" t="s">
         <v>49</v>
       </c>
@@ -10006,7 +10001,7 @@
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
     </row>
-    <row r="30" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="40" t="s">
         <v>50</v>
       </c>
@@ -10014,7 +10009,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
     </row>
-    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="40" t="s">
         <v>51</v>
       </c>
@@ -10022,7 +10017,7 @@
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
     </row>
-    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="40" t="s">
         <v>52</v>
       </c>
@@ -10030,7 +10025,7 @@
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
     </row>
-    <row r="33" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C33" s="40" t="s">
         <v>53</v>
       </c>
@@ -10038,7 +10033,7 @@
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
     </row>
-    <row r="34" spans="1:30" s="62" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" s="62" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="40" t="s">
@@ -10072,37 +10067,37 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
     </row>
-    <row r="36" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
     </row>
-    <row r="37" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C37"/>
       <c r="D37" s="40"/>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
     </row>
-    <row r="38" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C38"/>
       <c r="D38" s="40"/>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
     </row>
-    <row r="39" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C39"/>
       <c r="D39" s="40"/>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
     </row>
-    <row r="40" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C40"/>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
       <c r="F40" s="41"/>
     </row>
-    <row r="41" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C41"/>
       <c r="D41" s="40"/>
       <c r="E41" s="41"/>
@@ -10113,6 +10108,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="V17:V20"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="V13:V16"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -10129,44 +10162,6 @@
     <mergeCell ref="T21:T24"/>
     <mergeCell ref="U21:U24"/>
     <mergeCell ref="V9:V12"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="V13:V16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="V17:V20"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -10183,17 +10178,17 @@
       <selection activeCell="Y11" sqref="Y11:Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.36328125" style="2" customWidth="1"/>
-    <col min="21" max="25" width="5.453125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="2" width="3.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.33203125" style="2" customWidth="1"/>
+    <col min="21" max="25" width="5.44140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -10211,7 +10206,7 @@
       <c r="X1" s="20"/>
       <c r="Y1" s="20"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
@@ -10242,7 +10237,7 @@
       <c r="X2" s="20"/>
       <c r="Y2" s="20"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>33</v>
       </c>
@@ -10275,7 +10270,7 @@
       <c r="X3" s="20"/>
       <c r="Y3" s="20"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="51"/>
       <c r="C4" s="17"/>
@@ -10331,66 +10326,66 @@
       <c r="X5" s="17"/>
       <c r="Y5" s="17"/>
     </row>
-    <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="101" t="s">
+    <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="101"/>
-      <c r="Y6" s="101"/>
-    </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="101" t="str">
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+    </row>
+    <row r="7" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
+      <c r="A7" s="88" t="str">
         <f>Мельницький!A7</f>
         <v>обліку робочого часу працівників за Липень 2021р.</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-    </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+    </row>
+    <row r="8" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="49"/>
       <c r="C8" s="14"/>
@@ -10417,91 +10412,91 @@
       <c r="X8" s="18"/>
       <c r="Y8" s="14"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103" t="s">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="103" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="96" t="s">
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="96" t="s">
+      <c r="V9" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="W9" s="96" t="s">
+      <c r="W9" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="X9" s="96" t="s">
+      <c r="X9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="Y9" s="96" t="s">
+      <c r="Y9" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="97" t="s">
+      <c r="Z9" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="103"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="97"/>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="84"/>
+    </row>
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="99">
         <v>1</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="119"/>
+      <c r="C11" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="101" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="27">
@@ -10552,28 +10547,28 @@
       <c r="T11" s="27">
         <v>16</v>
       </c>
-      <c r="U11" s="93">
+      <c r="U11" s="102">
         <v>14</v>
       </c>
-      <c r="V11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="84" t="s">
+      <c r="V11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="105" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="111"/>
-      <c r="Y11" s="84">
+      <c r="Y11" s="105">
         <v>12</v>
       </c>
       <c r="Z11" s="114">
         <v>6060</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="28">
         <v>8</v>
       </c>
@@ -10622,18 +10617,18 @@
       <c r="T12" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="85"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="106"/>
       <c r="X12" s="112"/>
-      <c r="Y12" s="86"/>
+      <c r="Y12" s="107"/>
       <c r="Z12" s="114"/>
     </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
+    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="99"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="29">
         <v>17</v>
       </c>
@@ -10682,21 +10677,21 @@
       <c r="T13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="85"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="106"/>
       <c r="X13" s="112"/>
-      <c r="Y13" s="84">
+      <c r="Y13" s="105">
         <f>Y11*8</f>
         <v>96</v>
       </c>
       <c r="Z13" s="114"/>
     </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
+    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="99"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="28" t="s">
         <v>86</v>
       </c>
@@ -10743,14 +10738,14 @@
         <v>13</v>
       </c>
       <c r="T14" s="31"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="86"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="107"/>
       <c r="X14" s="113"/>
-      <c r="Y14" s="86"/>
+      <c r="Y14" s="107"/>
       <c r="Z14" s="114"/>
     </row>
-    <row r="15" spans="1:26" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="50"/>
       <c r="C15" s="77" t="s">
         <v>12</v>
@@ -10764,7 +10759,7 @@
       </c>
       <c r="X15" s="16"/>
     </row>
-    <row r="17" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D17" s="40" t="s">
         <v>55</v>
       </c>
@@ -10772,7 +10767,7 @@
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D18" s="40" t="s">
         <v>49</v>
       </c>
@@ -10780,7 +10775,7 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
     </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="40" t="s">
         <v>50</v>
       </c>
@@ -10788,7 +10783,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="40" t="s">
         <v>51</v>
       </c>
@@ -10796,7 +10791,7 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="40" t="s">
         <v>52</v>
       </c>
@@ -10804,7 +10799,7 @@
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="40" t="s">
         <v>53</v>
       </c>
@@ -10819,6 +10814,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="X11:X14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
@@ -10832,17 +10838,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="X11:X14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -10859,28 +10854,28 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.36328125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.36328125" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="2" width="4.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.33203125" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
       <c r="R1" s="19" t="s">
         <v>29</v>
       </c>
       <c r="S1" s="20"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>17</v>
       </c>
@@ -10910,7 +10905,7 @@
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -10938,7 +10933,7 @@
       <c r="W3" s="22"/>
       <c r="X3" s="22"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -11018,148 +11013,148 @@
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-    </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="101" t="str">
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+    </row>
+    <row r="8" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
+      <c r="A8" s="88" t="str">
         <f>Мельницький!A7</f>
         <v>обліку робочого часу працівників за Липень 2021р.</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-    </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+    </row>
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="103" t="s">
+      <c r="C9" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="96" t="s">
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="96" t="s">
+      <c r="V9" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="96" t="s">
+      <c r="W9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="96" t="s">
+      <c r="X9" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="97" t="s">
+      <c r="Y9" s="84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="97"/>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="84"/>
+    </row>
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="99">
         <v>1</v>
       </c>
-      <c r="B11" s="125">
+      <c r="B11" s="119">
         <v>1</v>
       </c>
       <c r="C11" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="132" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="27">
@@ -11210,16 +11205,16 @@
       <c r="T11" s="27">
         <v>16</v>
       </c>
-      <c r="U11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="84">
+      <c r="U11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="105">
         <v>22</v>
       </c>
       <c r="Y11" s="135">
@@ -11230,11 +11225,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="90"/>
-      <c r="B12" s="126"/>
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="140"/>
-      <c r="D12" s="122"/>
+      <c r="D12" s="133"/>
       <c r="E12" s="28">
         <v>8</v>
       </c>
@@ -11283,17 +11278,17 @@
       <c r="T12" s="28">
         <v>8</v>
       </c>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="86"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="107"/>
       <c r="Y12" s="136"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="90"/>
-      <c r="B13" s="126"/>
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="99"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="140"/>
-      <c r="D13" s="122"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="29">
         <v>17</v>
       </c>
@@ -11342,20 +11337,20 @@
       <c r="T13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="84">
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="105">
         <f>Z11+Z14</f>
         <v>176</v>
       </c>
       <c r="Y13" s="136"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
-      <c r="B14" s="127"/>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="99"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="141"/>
-      <c r="D14" s="123"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="28" t="s">
         <v>13</v>
       </c>
@@ -11404,10 +11399,10 @@
       <c r="T14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
       <c r="Y14" s="137"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
@@ -11440,7 +11435,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="138" t="s">
         <v>12</v>
@@ -11469,7 +11464,7 @@
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
     </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D18" s="40" t="s">
         <v>55</v>
       </c>
@@ -11477,7 +11472,7 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
     </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="40" t="s">
         <v>49</v>
       </c>
@@ -11485,7 +11480,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="40" t="s">
         <v>50</v>
       </c>
@@ -11493,7 +11488,7 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="40" t="s">
         <v>51</v>
       </c>
@@ -11501,7 +11496,7 @@
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="40" t="s">
         <v>52</v>
       </c>
@@ -11509,7 +11504,7 @@
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D23" s="40" t="s">
         <v>53</v>
       </c>
@@ -11524,14 +11519,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -11542,12 +11535,14 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
